--- a/docs/template/测试用例模版.xlsx
+++ b/docs/template/测试用例模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240"/>
+    <workbookView windowWidth="30240" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1036,10 +1036,10 @@
   <sheetPr/>
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1074,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="51" customHeight="1" spans="6:6">
+    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="6:6">
       <c r="F2" s="4"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="6:6">
@@ -1490,10 +1490,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F214">
       <formula1>"P0,P1,P2,P3,P4"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F215:F1048576">
       <formula1>"P0,P1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/template/测试用例模版.xlsx
+++ b/docs/template/测试用例模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13180"/>
+    <workbookView windowWidth="30240" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1034,12 +1034,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1074,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="6:6">
+    <row r="2" s="2" customFormat="1" spans="6:6">
       <c r="F2" s="4"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="6:6">
@@ -1485,15 +1485,12 @@
     <row r="138" s="2" customFormat="1" spans="6:6">
       <c r="F138" s="4"/>
     </row>
-    <row r="139" s="2" customFormat="1" spans="6:6">
-      <c r="F139" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F214">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F213">
       <formula1>"P0,P1,P2,P3,P4"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F215:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F214:F1048576">
       <formula1>"P0,P1"</formula1>
     </dataValidation>
   </dataValidations>
